--- a/custom sim/endurance_data7.xlsx
+++ b/custom sim/endurance_data7.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EJDRO\OneDrive\Documents\GitHub\FEBSim\custom sim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB498A-CCF1-412B-9692-8ED56757886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Mass (kg)</t>
   </si>
@@ -55,15 +36,12 @@
   <si>
     <t>Endurance Energy (kWh)</t>
   </si>
-  <si>
-    <t>Average Laptime (s)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,27 +58,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,54 +89,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +148,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,10 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,100 +420,85 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6">
-        <v>298</v>
-      </c>
-      <c r="B2" s="6">
-        <v>6.048</v>
-      </c>
-      <c r="C2" s="6">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>325</v>
+      </c>
+      <c r="B2">
+        <v>6.048</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>-1.98</v>
+      </c>
+      <c r="E2">
+        <v>-1.33</v>
+      </c>
+      <c r="F2">
+        <v>2927.621439730384</v>
+      </c>
+      <c r="G2">
+        <v>5.468230186826385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>325</v>
+      </c>
+      <c r="B3">
+        <v>6.048</v>
+      </c>
+      <c r="C3">
         <v>17</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3">
         <v>-1.98</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E3">
         <v>-1.33</v>
       </c>
-      <c r="F2" s="6">
-        <v>1925.381041892744</v>
-      </c>
-      <c r="G2" s="6">
-        <v>4.9049888183855952</v>
-      </c>
-      <c r="H2" s="6">
-        <f>F2/22</f>
-        <v>87.51732008603382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6">
-        <v>298</v>
-      </c>
-      <c r="B3" s="6">
-        <v>6.048</v>
-      </c>
-      <c r="C3" s="6">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="F3">
+        <v>2211.83365261531</v>
+      </c>
+      <c r="G3">
+        <v>5.03026824714328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>325</v>
+      </c>
+      <c r="B4">
+        <v>6.048</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>-1.98</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4">
         <v>-1.33</v>
       </c>
-      <c r="F3" s="6">
-        <v>1910.6646652589341</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3.8780160764250322</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H10" si="0">F3/22</f>
-        <v>86.848393875406089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6">
-        <v>298</v>
-      </c>
-      <c r="B4" s="6">
-        <v>6.048</v>
-      </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-1.98</v>
-      </c>
-      <c r="E4" s="6">
-        <v>-1.33</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1958.536108363722</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3.4222816043358719</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="0"/>
-        <v>89.024368561987359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4">
+        <v>1878.952627388993</v>
+      </c>
+      <c r="G4">
+        <v>4.621460608642717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B5">
         <v>6.048</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>-1.23</v>
@@ -586,25 +507,21 @@
         <v>-0.93</v>
       </c>
       <c r="F5">
-        <v>1816.895198330712</v>
+        <v>2719.151475580394</v>
       </c>
       <c r="G5">
-        <v>4.6999198617662614</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>82.586145378668732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>5.35356665511827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B6">
         <v>6.048</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>-1.23</v>
@@ -613,25 +530,21 @@
         <v>-0.93</v>
       </c>
       <c r="F6">
-        <v>1907.9592609748611</v>
+        <v>2013.985853491313</v>
       </c>
       <c r="G6">
-        <v>3.8085447991462869</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>86.725420953402775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>4.939276250193613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B7">
         <v>6.048</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>-1.23</v>
@@ -640,95 +553,79 @@
         <v>-0.93</v>
       </c>
       <c r="F7">
-        <v>1953.1763719619321</v>
+        <v>1877.811043686383</v>
       </c>
       <c r="G7">
-        <v>3.3513012164557461</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>88.780744180087822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4">
-        <v>284</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6.048</v>
-      </c>
-      <c r="C8" s="4">
+        <v>4.540607267867355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>311</v>
+      </c>
+      <c r="B8">
+        <v>6.048</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>-0.05</v>
+      </c>
+      <c r="E8">
+        <v>-0.52</v>
+      </c>
+      <c r="F8">
+        <v>2300.181889374023</v>
+      </c>
+      <c r="G8">
+        <v>5.136770775596171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>311</v>
+      </c>
+      <c r="B9">
+        <v>6.048</v>
+      </c>
+      <c r="C9">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9">
         <v>-0.05</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9">
         <v>-0.52</v>
       </c>
-      <c r="F8" s="4">
-        <v>1813.6952988314681</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4.5049201650531803</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>82.440695401430375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4">
-        <v>284</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6.048</v>
-      </c>
-      <c r="C9" s="4">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="F9">
+        <v>1833.160350352796</v>
+      </c>
+      <c r="G9">
+        <v>4.6547252990882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>311</v>
+      </c>
+      <c r="B10">
+        <v>6.048</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
         <v>-0.05</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10">
         <v>-0.52</v>
       </c>
-      <c r="F9" s="4">
-        <v>1899.891700153722</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3.67286940732349</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>86.358713643350995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
-        <v>284</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6.048</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-0.52</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1942.298470166482</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3.2405132801450951</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>88.286294098476461</v>
+      <c r="F10">
+        <v>1871.459025823018</v>
+      </c>
+      <c r="G10">
+        <v>4.395150831125813</v>
       </c>
     </row>
   </sheetData>
